--- a/Main Website/media/BAJAJ-CD/MIS/BAJAJ_PERFORMANCE.xlsx
+++ b/Main Website/media/BAJAJ-CD/MIS/BAJAJ_PERFORMANCE.xlsx
@@ -476,7 +476,7 @@
         <v>353893</v>
       </c>
       <c r="E2" t="n">
-        <v>1.824968501588637</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>264337</v>
       </c>
       <c r="E3" t="n">
-        <v>1.552643153279348</v>
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>
